--- a/ffbmessaging/StructureDefinition-kl-messaging-ffb-informationGathering.xlsx
+++ b/ffbmessaging/StructureDefinition-kl-messaging-ffb-informationGathering.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-26T15:37:37+02:00</t>
+    <t>2023-08-27T08:19:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
